--- a/EC/Train Runs and Enforcements 2016-05-19.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-19.xlsx
@@ -2610,7 +2610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>

--- a/EC/Train Runs and Enforcements 2016-05-19.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-19.xlsx
@@ -2608,10 +2608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CK159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R115" sqref="R115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2808,7 @@
       <c r="CJ2" s="10"/>
       <c r="CK2" s="10"/>
     </row>
-    <row r="3" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>239</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>238</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>233</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>246</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="7" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>232</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="8" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>223</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>241</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>240</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>243</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="12" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>228</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="13" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>249</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>235</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="15" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>242</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>236</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>247</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>230</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>226</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>248</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>234</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>244</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>224</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>342</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>237</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>322</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>227</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>427</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>245</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>439</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>433</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>323</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>417</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>438</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>441</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>387</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>344</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>368</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>434</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>409</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>440</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>425</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>410</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>435</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>424</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>394</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>426</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>325</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>423</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>420</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>459</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>407</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>419</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>422</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>370</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
         <v>374</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>411</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>372</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>372</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>432</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>382</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>449</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>346</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>326</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>396</v>
       </c>
@@ -8448,7 +8449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>448</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>406</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>376</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>380</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>347</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>327</v>
       </c>
@@ -9122,7 +9123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>375</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>377</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>345</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>446</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>373</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>378</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>343</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>329</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>403</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>412</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>328</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>341</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>381</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>371</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>413</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>401</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>453</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>339</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>348</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>430</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
         <v>400</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>384</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>331</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>389</v>
       </c>
@@ -11572,7 +11573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>397</v>
       </c>
@@ -11656,7 +11657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>456</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>404</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>416</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>334</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="112" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>398</v>
       </c>
@@ -12076,7 +12077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>335</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="114" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>395</v>
       </c>
@@ -12332,7 +12333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>351</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
         <v>454</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
         <v>429</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>437</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>457</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>336</v>
       </c>
@@ -12924,7 +12925,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>391</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>332</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>458</v>
       </c>
@@ -13176,7 +13177,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>330</v>
       </c>
@@ -13260,7 +13261,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>415</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>352</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>450</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
         <v>451</v>
       </c>
@@ -13596,7 +13597,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>385</v>
       </c>
@@ -13680,7 +13681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>405</v>
       </c>
@@ -13764,7 +13765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
         <v>443</v>
       </c>
@@ -13848,7 +13849,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="134" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="61" t="s">
         <v>414</v>
       </c>
@@ -13932,7 +13933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="61" t="s">
         <v>338</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="136" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="61" t="s">
         <v>442</v>
       </c>
@@ -14100,7 +14101,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="61" t="s">
         <v>363</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="138" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="61" t="s">
         <v>444</v>
       </c>
@@ -14268,7 +14269,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="61" t="s">
         <v>390</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
         <v>369</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="61" t="s">
         <v>428</v>
       </c>
@@ -14520,7 +14521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="61" t="s">
         <v>362</v>
       </c>
@@ -15077,7 +15078,13 @@
       <c r="AA159" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA142"/>
+  <autoFilter ref="A2:AA142">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A3:Y144">
     <sortCondition ref="A3:A144"/>
   </sortState>
